--- a/santander.xlsx
+++ b/santander.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,15 +481,15 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45923</v>
+        <v>45928</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SALDO INICIAL</t>
+          <t>40504-SBX ALTO</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2</v>
+        <v>-5720</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8549</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -513,21 +513,21 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'full_account_id': '**** 8549', 'date': '23/09/2025', 'description': 'SALDO INICIAL', 'amount': '--$2'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '28/09/2025', 'description': '40504-SBX ALTO', 'amount': '--$5.720'}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45894</v>
+        <v>45928</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>INTERESES</t>
+          <t>C. VERDE ALTO L</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-2</v>
+        <v>-12171</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -541,7 +541,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8549</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -551,21 +551,21 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>{'full_account_id': '**** 8549', 'date': '25/08/2025', 'description': 'INTERESES', 'amount': '-$2'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '28/09/2025', 'description': 'C. VERDE ALTO L', 'amount': '--$12.171'}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45862</v>
+        <v>45928</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MONTO CANCELADO</t>
+          <t>PAYU *UBER TR</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2922</v>
+        <v>-3925</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8549</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -589,25 +589,25 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>{'full_account_id': '**** 8549', 'date': '24/07/2025', 'description': 'MONTO CANCELADO', 'amount': '-$2.922'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '28/09/2025', 'description': 'PAYU *UBER TR', 'amount': '--$3.925'}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45472</v>
+        <v>45928</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ABONO DE DIVISAS</t>
+          <t>OXXO ROSARIO RO</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-77.38</v>
+        <v>-4740</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>CLP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8549</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -627,21 +627,21 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>{'full_account_id': '**** 8549', 'date': '29/06/2024', 'description': 'ABONO DE DIVISAS', 'amount': '-USD -77,38'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '28/09/2025', 'description': 'OXXO ROSARIO RO', 'amount': '--$4.740'}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>COM.MANTENCION PLAN</t>
+          <t>WE TRANSPORT</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-3546</v>
+        <v>-39500</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -655,31 +655,31 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '26/09', 'description': 'COM.MANTENCION PLAN', 'amount': '--$3.546'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '28/09/2025', 'description': 'WE TRANSPORT', 'amount': '--$39.500'}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45926</v>
+        <v>45927</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Egreso por Compra de Divisas</t>
+          <t>PEAJE PICHIDANG</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-42581</v>
+        <v>-2800</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -693,31 +693,31 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '26/09', 'description': 'Egreso por Compra de Divisas', 'amount': '--$42.581'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '27/09/2025', 'description': 'PEAJE PICHIDANG', 'amount': '--$2.800'}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45926</v>
+        <v>45927</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Traspaso Internet a T. Crédito</t>
+          <t>ECONORENT CAR R</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-5451394</v>
+        <v>-550000</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -731,17 +731,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '26/09', 'description': 'Traspaso Internet a T. Crédito', 'amount': '--$5.451.394'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '27/09/2025', 'description': 'ECONORENT CAR R', 'amount': '--$550.000'}</t>
         </is>
       </c>
     </row>
@@ -751,11 +751,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>42003439-3 TRANSFERENCIA WELLS FARGO:2200419</t>
+          <t>EL CASTILLO DE</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6443897</v>
+        <v>-7910</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -764,36 +764,36 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Abono</t>
+          <t>Cargo</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '26/09', 'description': '42003439-3 TRANSFERENCIA WELLS FARGO:2200419', 'amount': '+$6.443.897'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '26/09/2025', 'description': 'EL CASTILLO DE', 'amount': '--$7.910'}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>COMPRA NACIONAL VICTORIA</t>
+          <t>DRA. GABRIELA G</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-10300</v>
+        <v>-20000</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -807,31 +807,31 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '24/09', 'description': 'COMPRA NACIONAL VICTORIA', 'amount': '--$10.300'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '26/09/2025', 'description': 'DRA. GABRIELA G', 'amount': '--$20.000'}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Traspaso Internet a T. Crédito</t>
+          <t>ARAMCO MANQUEHU</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-4223375</v>
+        <v>-51438</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -845,31 +845,31 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '24/09', 'description': 'Traspaso Internet a T. Crédito', 'amount': '--$4.223.375'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '26/09/2025', 'description': 'ARAMCO MANQUEHU', 'amount': '--$51.438'}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0771680569 TRANSF A GARAGE</t>
+          <t>PAGO</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-2700000</v>
+        <v>5451394</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -878,36 +878,36 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cargo</t>
+          <t>Abono</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '24/09', 'description': '0771680569 TRANSF A GARAGE', 'amount': '--$2.700.000'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '26/09/2025', 'description': 'PAGO', 'amount': '+$5.451.394'}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45924</v>
+        <v>45925</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0763171612 TRANSF DE COMERCIALIZADORA LE</t>
+          <t>DLOCAL *AMAZONC</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1063000</v>
+        <v>-202529</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -916,36 +916,36 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Abono</t>
+          <t>Cargo</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '24/09', 'description': '0763171612 TRANSF DE COMERCIALIZADORA LE', 'amount': '+$1.063.000'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '25/09/2025', 'description': 'DLOCAL *AMAZONC', 'amount': '--$202.529'}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45922</v>
+        <v>45925</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0771680569 TRANSF A GARAGE</t>
+          <t>MERCAR</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-250000</v>
+        <v>-6770</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -959,31 +959,31 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '22/09', 'description': '0771680569 TRANSF A GARAGE', 'amount': '--$250.000'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '25/09/2025', 'description': 'MERCAR', 'amount': '--$6.770'}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45922</v>
+        <v>45925</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GIRO EN CAJERO AUTOMATICO</t>
+          <t>CONCESA</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-400000</v>
+        <v>-2310</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -997,31 +997,31 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '22/09', 'description': 'GIRO EN CAJERO AUTOMATICO', 'amount': '--$400.000'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '25/09/2025', 'description': 'CONCESA', 'amount': '--$2.310'}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45917</v>
+        <v>45925</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0965728007 P.ISAPRE ISAPRE BANM</t>
+          <t>MERPAGO*INVERSIONES GA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35445</v>
+        <v>-34890</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1030,36 +1030,36 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Abono</t>
+          <t>Cargo</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '17/09', 'description': '0965728007 P.ISAPRE ISAPRE BANM', 'amount': '+$35.445'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '25/09/2025', 'description': 'MERPAGO*INVERSIONES GA', 'amount': '--$34.890'}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45916</v>
+        <v>45925</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0103832810 TRANSF A IRENE ACUNA</t>
+          <t>DL*GOOGLE YOUTUBE</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-420000</v>
+        <v>-21700</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1073,31 +1073,31 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '16/09', 'description': '0103832810 TRANSF A IRENE ACUNA', 'amount': '--$420.000'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '25/09/2025', 'description': 'DL*GOOGLE YOUTUBE', 'amount': '--$21.700'}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45915</v>
+        <v>45924</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0125845452 TRANSF A JOSE LUIS GARAY</t>
+          <t>SAN ROQUE RESTAURANT</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-85000</v>
+        <v>-3000</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1111,31 +1111,31 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '15/09', 'description': '0125845452 TRANSF A JOSE LUIS GARAY', 'amount': '--$85.000'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '24/09/2025', 'description': 'SAN ROQUE RESTAURANT', 'amount': '--$3.000'}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45915</v>
+        <v>45924</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0208402633 TRANSF A SIBONEY</t>
+          <t>ENEL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-7500</v>
+        <v>-100048</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1149,31 +1149,31 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '15/09', 'description': '0208402633 TRANSF A SIBONEY', 'amount': '--$7.500'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '24/09/2025', 'description': 'ENEL', 'amount': '--$100.048'}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45915</v>
+        <v>45923</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0136683705 TRANSF A VALENTINA CAVIEDES DE</t>
+          <t>DL*GOOGLE YOUTUBE</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-83053</v>
+        <v>-92662</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1187,31 +1187,31 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '15/09', 'description': '0136683705 TRANSF A VALENTINA CAVIEDES DE', 'amount': '--$83.053'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '23/09/2025', 'description': 'DL*GOOGLE YOUTUBE', 'amount': '--$92.662'}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45915</v>
+        <v>45923</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>COMPRA NACIONAL VICTORIA</t>
+          <t>PAGO</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-22700</v>
+        <v>4223375</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1220,36 +1220,36 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cargo</t>
+          <t>Abono</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '15/09', 'description': 'COMPRA NACIONAL VICTORIA', 'amount': '--$22.700'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '23/09/2025', 'description': 'PAGO', 'amount': '+$4.223.375'}</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45915</v>
+        <v>45923</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0763171612 TRANSF A COMERCIALIZADORA LE</t>
+          <t>SALDO INICIAL</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-445526</v>
+        <v>-9471511</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1263,35 +1263,35 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '15/09', 'description': '0763171612 TRANSF A COMERCIALIZADORA LE', 'amount': '--$445.526'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '23/09/2025', 'description': 'SALDO INICIAL', 'amount': '--$9.471.511'}</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45912</v>
+        <v>45928</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Egreso por Compra de Divisas</t>
+          <t>AMAZON MARKETPL</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-1459018</v>
+        <v>-234.33</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CLP</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1301,111 +1301,111 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '12/09', 'description': 'Egreso por Compra de Divisas', 'amount': '--$1.459.018'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '28/09/2025', 'description': 'AMAZON MARKETPL', 'amount': '--USD234,33'}</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45912</v>
+        <v>45927</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0778689324 TRANSF. ELITE TRANSFER SPA</t>
+          <t>SUPERULTRA, INC</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2000000</v>
+        <v>-8.49</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CLP</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Abono</t>
+          <t>Cargo</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '12/09', 'description': '0778689324 TRANSF. ELITE TRANSFER SPA', 'amount': '+$2.000.000'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '27/09/2025', 'description': 'SUPERULTRA, INC', 'amount': '--USD8,49'}</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45912</v>
+        <v>45926</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0778689324 TRANSF. ELITE TRANSFER SPA</t>
+          <t>WWW.PERPLEXITY.</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5000000</v>
+        <v>-11.9</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CLP</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Abono</t>
+          <t>Cargo</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '12/09', 'description': '0778689324 TRANSF. ELITE TRANSFER SPA', 'amount': '+$5.000.000'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '26/09/2025', 'description': 'WWW.PERPLEXITY.', 'amount': '--USD11,90'}</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45912</v>
+        <v>45926</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Traspaso Internet a T. Crédito</t>
+          <t>PlexInc*Remote</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-4223375</v>
+        <v>-1.99</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CLP</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1415,35 +1415,35 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '12/09', 'description': 'Traspaso Internet a T. Crédito', 'amount': '--$4.223.375'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '26/09/2025', 'description': 'PlexInc*Remote', 'amount': '--USD1,99'}</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45912</v>
+        <v>45926</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0086193965 TRANSF. MELLA MALDONADO JUAN IGNACIO</t>
+          <t>ABONO DE DIVISAS</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4000000</v>
+        <v>44.14</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CLP</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1453,35 +1453,35 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '12/09', 'description': '0086193965 TRANSF. MELLA MALDONADO JUAN IGNACIO', 'amount': '+$4.000.000'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '26/09/2025', 'description': 'ABONO DE DIVISAS', 'amount': '+USD44,14'}</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45912</v>
+        <v>45924</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>COMPRA NACIONAL TANTA ALC</t>
+          <t>OPENAI</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-43560</v>
+        <v>-11.9</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CLP</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1491,35 +1491,35 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '12/09', 'description': 'COMPRA NACIONAL TANTA ALC', 'amount': '--$43.560'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '24/09/2025', 'description': 'OPENAI', 'amount': '--USD11,90'}</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45903</v>
+        <v>45923</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PAGO CUOTA CREDITO CONSUMO N° 650052539484</t>
+          <t>SALDO INICIAL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-2675170</v>
+        <v>-44.14</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CLP</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1529,31 +1529,31 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '03/09', 'description': 'PAGO CUOTA CREDITO CONSUMO N° 650052539484', 'amount': '--$2.675.170'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '23/09/2025', 'description': 'SALDO INICIAL', 'amount': '--USD44,14'}</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45903</v>
+        <v>45923</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>COMPRA NACIONAL VICTORIA</t>
+          <t>INTERESES</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-6000</v>
+        <v>-66136</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1567,31 +1567,31 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '03/09', 'description': 'COMPRA NACIONAL VICTORIA', 'amount': '--$6.000'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '23/09/2025', 'description': 'INTERESES', 'amount': '-$66.136'}</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45903</v>
+        <v>45923</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0177889121 TRANSF A CAMILA MAGRI GONZALEZ</t>
+          <t>IMPUESTOS</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-70000</v>
+        <v>-7083</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1605,31 +1605,31 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '03/09', 'description': '0177889121 TRANSF A CAMILA MAGRI GONZALEZ', 'amount': '--$70.000'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '23/09/2025', 'description': 'IMPUESTOS', 'amount': '-$7.083'}</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45903</v>
+        <v>45922</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transf de Fondos a Fecha Internet</t>
+          <t>PAYU *UBER TRIP</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>49999</v>
+        <v>-8212</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1638,36 +1638,36 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Abono</t>
+          <t>Cargo</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '03/09', 'description': 'Transf de Fondos a Fecha Internet', 'amount': '+$49.999'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '22/09/2025', 'description': 'PAYU *UBER TRIP', 'amount': '-$8.212'}</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45902</v>
+        <v>45922</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0763171612 TRANSF DE COMERCIALIZADORA LE</t>
+          <t>PAYU *UBER TRIP</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>800000</v>
+        <v>-1000</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1676,36 +1676,36 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Abono</t>
+          <t>Cargo</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '02/09', 'description': '0763171612 TRANSF DE COMERCIALIZADORA LE', 'amount': '+$800.000'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '22/09/2025', 'description': 'PAYU *UBER TRIP', 'amount': '-$1.000'}</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45901</v>
+        <v>45922</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0141537725 TRANSF A CONSTANZA VICTORIA</t>
+          <t>MERCADOPAGO *MINIMARK</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-500000</v>
+        <v>-3190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1719,31 +1719,31 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '01/09', 'description': '0141537725 TRANSF A CONSTANZA VICTORIA', 'amount': '--$500.000'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '22/09/2025', 'description': 'MERCADOPAGO *MINIMARK', 'amount': '-$3.190'}</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45898</v>
+        <v>45922</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>42003439-3 TRANSFERENCIA WELLS FARGO:2173226</t>
+          <t>EL CASTILLO DE SANTA</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5895666</v>
+        <v>-3000</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1752,36 +1752,36 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Abono</t>
+          <t>Cargo</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '29/08', 'description': '42003439-3 TRANSFERENCIA WELLS FARGO:2173226', 'amount': '+$5.895.666'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '22/09/2025', 'description': 'EL CASTILLO DE SANTA', 'amount': '-$3.000'}</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45896</v>
+        <v>45921</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>COM.MANTENCION PLAN</t>
+          <t>AMAZON.COM</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-3530</v>
+        <v>-25138</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1795,31 +1795,31 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '27/08', 'description': 'COM.MANTENCION PLAN', 'amount': '--$3.530'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '21/09/2025', 'description': 'AMAZON.COM', 'amount': '-$25.138'}</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45894</v>
+        <v>45921</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>LA ANONIMA SUC 175</t>
+          <t>TAVELLI LAS TRANQUERAS</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-41241</v>
+        <v>-11968</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1833,31 +1833,31 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '25/08', 'description': 'LA ANONIMA SUC 175', 'amount': '--$41.241'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '21/09/2025', 'description': 'TAVELLI LAS TRANQUERAS', 'amount': '-$11.968'}</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45890</v>
+        <v>45921</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PAGO EN LINEA ENEL</t>
+          <t>CASONA DEL AJI</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-77816</v>
+        <v>-115020</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1871,31 +1871,31 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '21/08', 'description': 'PAGO EN LINEA ENEL', 'amount': '--$77.816'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '21/09/2025', 'description': 'CASONA DEL AJI', 'amount': '-$115.020'}</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45888</v>
+        <v>45921</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0103832810 TRANSF A IRENE ACUNA</t>
+          <t>MUCA SPA</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-360000</v>
+        <v>-14157</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1909,31 +1909,31 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '19/08', 'description': '0103832810 TRANSF A IRENE ACUNA', 'amount': '--$360.000'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '21/09/2025', 'description': 'MUCA SPA', 'amount': '-$14.157'}</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45888</v>
+        <v>45921</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SAN ROQUE RESTAURANT</t>
+          <t>DLOCAL *AMAZONCOM</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-5000</v>
+        <v>-48129</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1947,53 +1947,6855 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>corriente</t>
+          <t>credito</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>{'full_account_id': '007061511401', 'date': '19/08', 'description': 'SAN ROQUE RESTAURANT', 'amount': '--$5.000'}</t>
+          <t>{'full_account_id': '**** 9722', 'date': '21/09/2025', 'description': 'DLOCAL *AMAZONCOM', 'amount': '-$48.129'}</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
+        <v>45920</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>DL*GOOGLE YOUTUBE</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>-5500</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '20/09/2025', 'description': 'DL*GOOGLE YOUTUBE', 'amount': '-$5.500'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45920</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MERPAGO*COMERCIAL SAFQ</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>-23320</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '20/09/2025', 'description': 'MERPAGO*COMERCIAL SAFQ', 'amount': '-$23.320'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45920</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>RESTAURANT HENG FA</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>-27700</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '20/09/2025', 'description': 'RESTAURANT HENG FA', 'amount': '-$27.700'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45920</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MERCADOPAGO *SANSEBAS</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>-850</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '20/09/2025', 'description': 'MERCADOPAGO *SANSEBAS', 'amount': '-$850'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>DGUSTTY</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>-3500</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '19/09/2025', 'description': 'DGUSTTY', 'amount': '-$3.500'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DLOCAL *AMAZONCOM</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>-92695</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '19/09/2025', 'description': 'DLOCAL *AMAZONCOM', 'amount': '-$92.695'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>DLOCAL *AMAZONCOM</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>-81927</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '18/09/2025', 'description': 'DLOCAL *AMAZONCOM', 'amount': '-$81.927'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>BURGOS GOURMET</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>-8000</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '18/09/2025', 'description': 'BURGOS GOURMET', 'amount': '-$8.000'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MERCAR</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>-11180</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '18/09/2025', 'description': 'MERCAR', 'amount': '-$11.180'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SumUp * Gastronomia A</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>-4500</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '18/09/2025', 'description': 'SumUp * Gastronomia A', 'amount': '-$4.500'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>FIABSA</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>-9988</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '17/09/2025', 'description': 'FIABSA', 'amount': '-$9.988'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>LUCAGU SPA</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>-13805</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '17/09/2025', 'description': 'LUCAGU SPA', 'amount': '-$13.805'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>EMMVI</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>-6580</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '16/09/2025', 'description': 'EMMVI', 'amount': '-$6.580'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>DL*GOOGLE YOUTUBE</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>-13600</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '16/09/2025', 'description': 'DL*GOOGLE YOUTUBE', 'amount': '-$13.600'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>40504-SBX ALTO LAS C</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>-6820</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '16/09/2025', 'description': '40504-SBX ALTO LAS C', 'amount': '-$6.820'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>COMISIÓN TC FUERA DE PLAN</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>-23691</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '16/09/2025', 'description': 'COMISIÓN TC FUERA DE PLAN', 'amount': '-$23.691'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>RedGloba*DULCES ALONDR</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>-1800</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '15/09/2025', 'description': 'RedGloba*DULCES ALONDR', 'amount': '-$1.800'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TUU*HAULMER AGREGADOR</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>-18000</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '15/09/2025', 'description': 'TUU*HAULMER AGREGADOR', 'amount': '-$18.000'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>DL*GOOGLE YOUTUBE</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>-1700</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '15/09/2025', 'description': 'DL*GOOGLE YOUTUBE', 'amount': '-$1.700'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MERCADOPAGO *THECREPE</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>-22220</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '15/09/2025', 'description': 'MERCADOPAGO *THECREPE', 'amount': '-$22.220'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>MERCAR</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>-1400</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '15/09/2025', 'description': 'MERCAR', 'amount': '-$1.400'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>EMPANADAS PAULAA</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>-6600</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '15/09/2025', 'description': 'EMPANADAS PAULAA', 'amount': '-$6.600'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45914</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>RedGloba*LUCEROTACHI S</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>-12400</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '14/09/2025', 'description': 'RedGloba*LUCEROTACHI S', 'amount': '-$12.400'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45914</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>RedGloba*COMERCIALIZAD</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>-5750</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '14/09/2025', 'description': 'RedGloba*COMERCIALIZAD', 'amount': '-$5.750'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45914</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>DL*GOOGLE YOUTUBE</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>-16900</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '14/09/2025', 'description': 'DL*GOOGLE YOUTUBE', 'amount': '-$16.900'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45914</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MERCAR</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>-1400</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '14/09/2025', 'description': 'MERCAR', 'amount': '-$1.400'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45914</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>PRONTO BARRA LAMPA 201</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>-10480</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '14/09/2025', 'description': 'PRONTO BARRA LAMPA 201', 'amount': '-$10.480'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45914</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>PEAJE PICHIDANGUI</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>-2800</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '14/09/2025', 'description': 'PEAJE PICHIDANGUI', 'amount': '-$2.800'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45914</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>AUTOPISTA NUEVA ACONCA</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>-2800</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '14/09/2025', 'description': 'AUTOPISTA NUEVA ACONCA', 'amount': '-$2.800'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45913</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>DLOCAL *AMAZONCOM</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>-214766</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '13/09/2025', 'description': 'DLOCAL *AMAZONCOM', 'amount': '-$214.766'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45913</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>PAYU *UBER TRIP</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>-31076</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '13/09/2025', 'description': 'PAYU *UBER TRIP', 'amount': '-$31.076'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45913</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>TORO IQQ</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>-3000</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '13/09/2025', 'description': 'TORO IQQ', 'amount': '-$3.000'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ADOBE ADOBE</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>-28322</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '12/09/2025', 'description': 'ADOBE ADOBE', 'amount': '-$28.322'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>MONTO CANCELADO</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>-4223375</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '11/09/2025', 'description': 'MONTO CANCELADO', 'amount': '-$4.223.375'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>PAYU *UBER TRIP</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>-6444</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '11/09/2025', 'description': 'PAYU *UBER TRIP', 'amount': '-$6.444'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>BAR VALDIVIA</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>-49830</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '11/09/2025', 'description': 'BAR VALDIVIA', 'amount': '-$49.830'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>PAYU *UBER TRIP</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>-3871</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '10/09/2025', 'description': 'PAYU *UBER TRIP', 'amount': '-$3.871'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>PAYU *UBER TRIP</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>-3480</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '10/09/2025', 'description': 'PAYU *UBER TRIP', 'amount': '-$3.480'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>VILAPERT</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>-24640</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '10/09/2025', 'description': 'VILAPERT', 'amount': '-$24.640'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>TRASPASO A DEUDA NACIONAL</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>-6508438</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '10/09/2025', 'description': 'TRASPASO A DEUDA NACIONAL', 'amount': '-$6.508.438'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>TORO IQQ</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>-15950</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '09/09/2025', 'description': 'TORO IQQ', 'amount': '-$15.950'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>UBER RIDES</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>-29575</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '09/09/2025', 'description': 'UBER RIDES', 'amount': '-$29.575'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>SUC BEEPSHUTTLE SPA</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>-38000</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '09/09/2025', 'description': 'SUC BEEPSHUTTLE SPA', 'amount': '-$38.000'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>40504-SBX ALTO LAS C</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>-11660</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '08/09/2025', 'description': '40504-SBX ALTO LAS C', 'amount': '-$11.660'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>DL*GOOGLE YOUTUBE</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>-20200</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '08/09/2025', 'description': 'DL*GOOGLE YOUTUBE', 'amount': '-$20.200'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>SEG AUTO SANTANDER</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>-65095</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '08/09/2025', 'description': 'SEG AUTO SANTANDER', 'amount': '-$65.095'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>MERCAR</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>-1400</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '08/09/2025', 'description': 'MERCAR', 'amount': '-$1.400'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>WE TRANSPORT</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>-29900</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '08/09/2025', 'description': 'WE TRANSPORT', 'amount': '-$29.900'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>CAPRESE</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>-38368</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '08/09/2025', 'description': 'CAPRESE', 'amount': '-$38.368'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45907</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>MERCAR</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>-2950</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '07/09/2025', 'description': 'MERCAR', 'amount': '-$2.950'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45907</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>PAYU *UBER TRIP</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>-8574</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '07/09/2025', 'description': 'PAYU *UBER TRIP', 'amount': '-$8.574'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45907</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>BURGER KING VITACURA</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>-16300</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '07/09/2025', 'description': 'BURGER KING VITACURA', 'amount': '-$16.300'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45907</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>PARKING ALTO LAS CONDE</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>-200</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '07/09/2025', 'description': 'PARKING ALTO LAS CONDE', 'amount': '-$200'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45907</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>TIGRE RESTORAN</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>-111760</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '07/09/2025', 'description': 'TIGRE RESTORAN', 'amount': '-$111.760'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45906</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>SUC TEA ARAUCO</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>-31790</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '06/09/2025', 'description': 'SUC TEA ARAUCO', 'amount': '-$31.790'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45906</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>SABA ARAUCO KENNEDY</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>-750</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '06/09/2025', 'description': 'SABA ARAUCO KENNEDY', 'amount': '-$750'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>PAYU *UBER TRIP</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>-10480</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '05/09/2025', 'description': 'PAYU *UBER TRIP', 'amount': '-$10.480'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>PAYU *UBER TRIP</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>-9258</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '05/09/2025', 'description': 'PAYU *UBER TRIP', 'amount': '-$9.258'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>MERCAR</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>-3850</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '05/09/2025', 'description': 'MERCAR', 'amount': '-$3.850'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>DRA. GABRIELA GRONEMAN</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>-20000</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '05/09/2025', 'description': 'DRA. GABRIELA GRONEMAN', 'amount': '-$20.000'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>COSTANERA NORTE</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>-17926</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '05/09/2025', 'description': 'COSTANERA NORTE', 'amount': '-$17.926'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>TEMPURA</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>-59680</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '05/09/2025', 'description': 'TEMPURA', 'amount': '-$59.680'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>SABA ARAUCO KENNEDY</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>-1500</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '05/09/2025', 'description': 'SABA ARAUCO KENNEDY', 'amount': '-$1.500'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>40504-SBX ALTO LAS C</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>-5940</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '04/09/2025', 'description': '40504-SBX ALTO LAS C', 'amount': '-$5.940'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>INTEGRAMEDICA AUTOS AL</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>-8508</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '04/09/2025', 'description': 'INTEGRAMEDICA AUTOS AL', 'amount': '-$8.508'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>AUTOPISTA CENTRAL</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>-14776</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '04/09/2025', 'description': 'AUTOPISTA CENTRAL', 'amount': '-$14.776'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>MERCAR</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>-1400</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '04/09/2025', 'description': 'MERCAR', 'amount': '-$1.400'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>PARKING ALTO LAS CONDE</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>-750</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '04/09/2025', 'description': 'PARKING ALTO LAS CONDE', 'amount': '-$750'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>MERCADOPAGO *SKYAIRLI</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>-366678</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '03/09/2025', 'description': 'MERCADOPAGO *SKYAIRLI', 'amount': '-$366.678'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>DLOCAL *AMAZONCOM</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>-81265</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '02/09/2025', 'description': 'DLOCAL *AMAZONCOM', 'amount': '-$81.265'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45900</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>PARKING ALTO LAS CONDE</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>-1100</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '31/08/2025', 'description': 'PARKING ALTO LAS CONDE', 'amount': '-$1.100'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45900</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>41002-PFC ALTO LAS C</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>-50160</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '31/08/2025', 'description': '41002-PFC ALTO LAS C', 'amount': '-$50.160'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>CASA COSTANERA LC 188</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>-22770</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '30/08/2025', 'description': 'CASA COSTANERA LC 188', 'amount': '-$22.770'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>CASACOSTANERA</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>-1100</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '30/08/2025', 'description': 'CASACOSTANERA', 'amount': '-$1.100'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>PAYU *UBER TRIP</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>-11014</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '30/08/2025', 'description': 'PAYU *UBER TRIP', 'amount': '-$11.014'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>PAYU *UBER TRIP</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>-7947</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '30/08/2025', 'description': 'PAYU *UBER TRIP', 'amount': '-$7.947'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>PAYU *UBER EATS</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>-16212</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '30/08/2025', 'description': 'PAYU *UBER EATS', 'amount': '-$16.212'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>40504-SBX ALTO LAS C</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>-11660</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '29/08/2025', 'description': '40504-SBX ALTO LAS C', 'amount': '-$11.660'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>PAYU *UBER EATS</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>-30929</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '29/08/2025', 'description': 'PAYU *UBER EATS', 'amount': '-$30.929'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>PARKING ALTO LAS CONDE</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>-350</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '29/08/2025', 'description': 'PARKING ALTO LAS CONDE', 'amount': '-$350'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>C. VERDE VITACURA 4175</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>-990</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '29/08/2025', 'description': 'C. VERDE VITACURA 4175', 'amount': '-$990'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>PARKING ALTO LAS CONDE</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>-350</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '29/08/2025', 'description': 'PARKING ALTO LAS CONDE', 'amount': '-$350'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>PAYU *UBER TRIP</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>-7514</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '28/08/2025', 'description': 'PAYU *UBER TRIP', 'amount': '-$7.514'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>MERCAR</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>-5800</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '28/08/2025', 'description': 'MERCAR', 'amount': '-$5.800'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>MICROSOFT. STORE</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>-104990</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '28/08/2025', 'description': 'MICROSOFT. STORE', 'amount': '-$104.990'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>AMAZON.COM</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>-67198</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '27/08/2025', 'description': 'AMAZON.COM', 'amount': '-$67.198'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>DLOCAL *AMAZONCOM</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>-132740</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '27/08/2025', 'description': 'DLOCAL *AMAZONCOM', 'amount': '-$132.740'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>PARKING ALTO LAS CONDE</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>-500</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '27/08/2025', 'description': 'PARKING ALTO LAS CONDE', 'amount': '-$500'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>FLOW *3DWORKS</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>-50350</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '27/08/2025', 'description': 'FLOW *3DWORKS', 'amount': '-$50.350'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>ARAMCO MANQUEHUE 415</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>-9900</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '27/08/2025', 'description': 'ARAMCO MANQUEHUE 415', 'amount': '-$9.900'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>DL*GOOGLE YOUTUBE</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>-21200</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '26/08/2025', 'description': 'DL*GOOGLE YOUTUBE', 'amount': '-$21.200'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>40504-SBX ALTO LAS C</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>-12650</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '26/08/2025', 'description': '40504-SBX ALTO LAS C', 'amount': '-$12.650'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>EL CASTILLO DE SANTA</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>-7000</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '26/08/2025', 'description': 'EL CASTILLO DE SANTA', 'amount': '-$7.000'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>PARKING ALTO LAS CONDE</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>-650</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '26/08/2025', 'description': 'PARKING ALTO LAS CONDE', 'amount': '-$650'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>EL CASTILLO DE SANTA</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '25/08/2025', 'description': 'EL CASTILLO DE SANTA', 'amount': '-$2.500'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>MERCADOPAGO *WETRANSP</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>-38000</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '25/08/2025', 'description': 'MERCADOPAGO *WETRANSP', 'amount': '-$38.000'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>GOOGLE PLAY YOUTUBE</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>-21700</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '25/08/2025', 'description': 'GOOGLE PLAY YOUTUBE', 'amount': '-$21.700'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>PETROBRAS MANQUEHUE/MI</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>-3780</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '25/08/2025', 'description': 'PETROBRAS MANQUEHUE/MI', 'amount': '-$3.780'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>PRONTO COSTANERA E-6 2</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>-9380</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '25/08/2025', 'description': 'PRONTO COSTANERA E-6 2', 'amount': '-$9.380'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>ENEL</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>-119855</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '25/08/2025', 'description': 'ENEL', 'amount': '-$119.855'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>TUU*BUBBLES CAR WASH</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>-8333</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '07/08/2025', 'description': 'TUU*BUBBLES CAR WASH', 'amount': '-$8.333'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>MERCADOPAGO *MERCADOL</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>-20000</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '08/04/2025', 'description': 'MERCADOPAGO *MERCADOL', 'amount': '-$20.000'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45753</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>MP *MERCADO LIBRE</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>-33600</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '06/04/2025', 'description': 'MP *MERCADO LIBRE', 'amount': '-$33.600'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>WiFi Onboard</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>-11.18</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '18/09/2025', 'description': 'WiFi Onboard', 'amount': '-USD 11,18'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>NETFLIX.COM</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>-13.63</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '15/09/2025', 'description': 'NETFLIX.COM', 'amount': '-USD 13,63'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45914</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Intelsat Inflight LLC</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>-11.25</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '14/09/2025', 'description': 'Intelsat Inflight LLC', 'amount': '-USD 11,25'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45913</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Intelsat Inflight LLC</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>-8</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '13/09/2025', 'description': 'Intelsat Inflight LLC', 'amount': '-USD 8,00'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ABONO DE DIVISAS</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>-1491</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '11/09/2025', 'description': 'ABONO DE DIVISAS', 'amount': '-USD -1.491,00'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>TRASPASO DE DEUDA INTERNACIO</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>-6563.44</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '10/09/2025', 'description': 'TRASPASO DE DEUDA INTERNACIO', 'amount': '-USD -6.563,44'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Intelsat Inflight LLC</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>-11.25</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '09/09/2025', 'description': 'Intelsat Inflight LLC', 'amount': '-USD 11,25'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>FACEBK *XST2HX4762</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>-183.37</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '09/09/2025', 'description': 'FACEBK *XST2HX4762', 'amount': '-USD 183,37'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>FACEBK *5H4REYG762</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>-29.08</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '09/09/2025', 'description': 'FACEBK *5H4REYG762', 'amount': '-USD 29,08'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45907</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>roomoptimizepro.com</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>-71.68000000000001</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '07/09/2025', 'description': 'roomoptimizepro.com', 'amount': '-USD 71,68'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45906</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>CLOUDFLARE</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>-30</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '06/09/2025', 'description': 'CLOUDFLARE', 'amount': '-USD 30,00'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45906</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>CURSOR, AI POWERED IDE</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '06/09/2025', 'description': 'CURSOR, AI POWERED IDE', 'amount': '-USD 20,00'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>DROPBOX*MX7SQQQ4YCHS</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>-15.11</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '04/09/2025', 'description': 'DROPBOX*MX7SQQQ4YCHS', 'amount': '-USD 15,11'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>FACEBK *SPBZWWU762</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>-22.15</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '03/09/2025', 'description': 'FACEBK *SPBZWWU762', 'amount': '-USD 22,15'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>FACEBK *7M9TRX8762</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>-44.31</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '03/09/2025', 'description': 'FACEBK *7M9TRX8762', 'amount': '-USD 44,31'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>FACEBK *Z5AW9YQ762</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>-177.23</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '03/09/2025', 'description': 'FACEBK *Z5AW9YQ762', 'amount': '-USD 177,23'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>FACEBK *7Y9W9YQ762</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>-88.61</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '03/09/2025', 'description': 'FACEBK *7Y9W9YQ762', 'amount': '-USD 88,61'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>FACEBK *F7T72XC762</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>-22.16</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '03/09/2025', 'description': 'FACEBK *F7T72XC762', 'amount': '-USD 22,16'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>PAYPAL *SPOTIFY*P3A2C8</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>-7.25</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '03/09/2025', 'description': 'PAYPAL *SPOTIFY*P3A2C8', 'amount': '-USD 7,25'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Spotify P3A25DD932</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>-6.05</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '02/09/2025', 'description': 'Spotify P3A25DD932', 'amount': '-USD 6,05'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>FACEBK *JZTLZVY662</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>-158.35</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '01/09/2025', 'description': 'FACEBK *JZTLZVY662', 'amount': '-USD 158,35'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>GOOGLE *GSUITE_socrati</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>-15.68</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '01/09/2025', 'description': 'GOOGLE *GSUITE_socrati', 'amount': '-USD 15,68'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>GOOGLE *ADS9853242408</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>-251.38</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '01/09/2025', 'description': 'GOOGLE *ADS9853242408', 'amount': '-USD 251,38'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>WI-FI ONBOARD TAM</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>-10.9</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '01/09/2025', 'description': 'WI-FI ONBOARD TAM', 'amount': '-USD 10,90'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>FACEBK *36Z3WWU662</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>-39.59</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '01/09/2025', 'description': 'FACEBK *36Z3WWU662', 'amount': '-USD 39,59'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>FACEBK *NL3CXWC762</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>-79.17</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '01/09/2025', 'description': 'FACEBK *NL3CXWC762', 'amount': '-USD 79,17'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>GOOGLE *GSUITE_lemps.c</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>-42</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '01/09/2025', 'description': 'GOOGLE *GSUITE_lemps.c', 'amount': '-USD 42,00'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>AMAZON PRIME*FK8IW1CI3</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>-14.99</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '30/08/2025', 'description': 'AMAZON PRIME*FK8IW1CI3', 'amount': '-USD 14,99'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>SUPERULTRA, INC.</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>-8.49</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '27/08/2025', 'description': 'SUPERULTRA, INC.', 'amount': '-USD 8,49'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Autodesk ADY</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>-85</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '26/08/2025', 'description': 'Autodesk ADY', 'amount': '-USD 85,00'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>PLEXINC*REMOTE MONTHLY</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '26/08/2025', 'description': 'PLEXINC*REMOTE MONTHLY', 'amount': '-USD 1,99'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45893</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>BRCH GRILL SA</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>-6.72</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '24/08/2025', 'description': 'BRCH GRILL SA', 'amount': '-USD 6,72'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45893</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>BRCH GRILL SA</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>-7.7</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '24/08/2025', 'description': 'BRCH GRILL SA', 'amount': '-USD 7,70'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>45893</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>BRCH GRILL SA</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>-40.87</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>9722</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9722', 'date': '24/08/2025', 'description': 'BRCH GRILL SA', 'amount': '-USD 40,87'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>MONTO CANCELADO</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>-144117</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>9753</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 9753', 'date': '24/07/2025', 'description': 'MONTO CANCELADO', 'amount': '-$144.117'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>SALDO INICIAL</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>8549</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 8549', 'date': '23/09/2025', 'description': 'SALDO INICIAL', 'amount': '--$2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>INTERESES</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>8549</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 8549', 'date': '25/08/2025', 'description': 'INTERESES', 'amount': '-$2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>MONTO CANCELADO</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>-2922</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>8549</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 8549', 'date': '24/07/2025', 'description': 'MONTO CANCELADO', 'amount': '-$2.922'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>45472</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>ABONO DE DIVISAS</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>-77.38</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>8549</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>credito</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '**** 8549', 'date': '29/06/2024', 'description': 'ABONO DE DIVISAS', 'amount': '-USD -77,38'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>45564</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>0141537725 TRANSF DE CONSTANZA VICTORIA</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>299325</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Abono</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '29/09', 'description': '0141537725 TRANSF DE CONSTANZA VICTORIA', 'amount': '+$299.325'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45564</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Giro en Cajero Automatico</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>-400000</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '29/09', 'description': 'Giro en Cajero Automatico', 'amount': '--$400.000'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>COM.MANTENCION PLAN</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>-3546</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '26/09', 'description': 'COM.MANTENCION PLAN', 'amount': '--$3.546'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Egreso por Compra de Divisas</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>-42581</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '26/09', 'description': 'Egreso por Compra de Divisas', 'amount': '--$42.581'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Traspaso Internet a T. Crédito</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>-5451394</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '26/09', 'description': 'Traspaso Internet a T. Crédito', 'amount': '--$5.451.394'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>42003439-3 TRANSFERENCIA WELLS FARGO:2200419</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>6443897</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Abono</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '26/09', 'description': '42003439-3 TRANSFERENCIA WELLS FARGO:2200419', 'amount': '+$6.443.897'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>COMPRA NACIONAL VICTORIA</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>-10300</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '24/09', 'description': 'COMPRA NACIONAL VICTORIA', 'amount': '--$10.300'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Traspaso Internet a T. Crédito</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>-4223375</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '24/09', 'description': 'Traspaso Internet a T. Crédito', 'amount': '--$4.223.375'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>0771680569 TRANSF A GARAGE</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>-2700000</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '24/09', 'description': '0771680569 TRANSF A GARAGE', 'amount': '--$2.700.000'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>0763171612 TRANSF DE COMERCIALIZADORA LE</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>1063000</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Abono</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '24/09', 'description': '0763171612 TRANSF DE COMERCIALIZADORA LE', 'amount': '+$1.063.000'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>0771680569 TRANSF A GARAGE</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>-250000</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '22/09', 'description': '0771680569 TRANSF A GARAGE', 'amount': '--$250.000'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>GIRO EN CAJERO AUTOMATICO</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>-400000</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '22/09', 'description': 'GIRO EN CAJERO AUTOMATICO', 'amount': '--$400.000'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>0965728007 P.ISAPRE ISAPRE BANM</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>35445</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Abono</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '17/09', 'description': '0965728007 P.ISAPRE ISAPRE BANM', 'amount': '+$35.445'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>0103832810 TRANSF A IRENE ACUNA</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>-420000</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '16/09', 'description': '0103832810 TRANSF A IRENE ACUNA', 'amount': '--$420.000'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>0125845452 TRANSF A JOSE LUIS GARAY</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>-85000</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '15/09', 'description': '0125845452 TRANSF A JOSE LUIS GARAY', 'amount': '--$85.000'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>0208402633 TRANSF A SIBONEY</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>-7500</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '15/09', 'description': '0208402633 TRANSF A SIBONEY', 'amount': '--$7.500'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>0136683705 TRANSF A VALENTINA CAVIEDES DE</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>-83053</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '15/09', 'description': '0136683705 TRANSF A VALENTINA CAVIEDES DE', 'amount': '--$83.053'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>COMPRA NACIONAL VICTORIA</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>-22700</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '15/09', 'description': 'COMPRA NACIONAL VICTORIA', 'amount': '--$22.700'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>0763171612 TRANSF A COMERCIALIZADORA LE</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>-445526</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '15/09', 'description': '0763171612 TRANSF A COMERCIALIZADORA LE', 'amount': '--$445.526'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Egreso por Compra de Divisas</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>-1459018</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '12/09', 'description': 'Egreso por Compra de Divisas', 'amount': '--$1.459.018'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>0778689324 TRANSF. ELITE TRANSFER SPA</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Abono</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '12/09', 'description': '0778689324 TRANSF. ELITE TRANSFER SPA', 'amount': '+$2.000.000'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>0778689324 TRANSF. ELITE TRANSFER SPA</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Abono</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '12/09', 'description': '0778689324 TRANSF. ELITE TRANSFER SPA', 'amount': '+$5.000.000'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Traspaso Internet a T. Crédito</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>-4223375</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '12/09', 'description': 'Traspaso Internet a T. Crédito', 'amount': '--$4.223.375'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>0086193965 TRANSF. MELLA MALDONADO JUAN IGNACIO</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Abono</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '12/09', 'description': '0086193965 TRANSF. MELLA MALDONADO JUAN IGNACIO', 'amount': '+$4.000.000'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>COMPRA NACIONAL TANTA ALC</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>-43560</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '12/09', 'description': 'COMPRA NACIONAL TANTA ALC', 'amount': '--$43.560'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>PAGO CUOTA CREDITO CONSUMO N° 650052539484</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>-2675170</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '03/09', 'description': 'PAGO CUOTA CREDITO CONSUMO N° 650052539484', 'amount': '--$2.675.170'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>COMPRA NACIONAL VICTORIA</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>-6000</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '03/09', 'description': 'COMPRA NACIONAL VICTORIA', 'amount': '--$6.000'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>0177889121 TRANSF A CAMILA MAGRI GONZALEZ</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>-70000</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '03/09', 'description': '0177889121 TRANSF A CAMILA MAGRI GONZALEZ', 'amount': '--$70.000'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Transf de Fondos a Fecha Internet</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>49999</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Abono</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '03/09', 'description': 'Transf de Fondos a Fecha Internet', 'amount': '+$49.999'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>0763171612 TRANSF DE COMERCIALIZADORA LE</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>800000</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Abono</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '02/09', 'description': '0763171612 TRANSF DE COMERCIALIZADORA LE', 'amount': '+$800.000'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>0141537725 TRANSF A CONSTANZA VICTORIA</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>-500000</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '01/09', 'description': '0141537725 TRANSF A CONSTANZA VICTORIA', 'amount': '--$500.000'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>42003439-3 TRANSFERENCIA WELLS FARGO:2173226</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>5895666</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Abono</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '29/08', 'description': '42003439-3 TRANSFERENCIA WELLS FARGO:2173226', 'amount': '+$5.895.666'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>COM.MANTENCION PLAN</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>-3530</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '27/08', 'description': 'COM.MANTENCION PLAN', 'amount': '--$3.530'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>LA ANONIMA SUC 175</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>-41241</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '25/08', 'description': 'LA ANONIMA SUC 175', 'amount': '--$41.241'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>PAGO EN LINEA ENEL</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>-77816</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '21/08', 'description': 'PAGO EN LINEA ENEL', 'amount': '--$77.816'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
         <v>45888</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>0103832810 TRANSF A IRENE ACUNA</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>-360000</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '19/08', 'description': '0103832810 TRANSF A IRENE ACUNA', 'amount': '--$360.000'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>SAN ROQUE RESTAURANT</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>corriente</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>{'full_account_id': '007061511401', 'date': '19/08', 'description': 'SAN ROQUE RESTAURANT', 'amount': '--$5.000'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B220" t="inlineStr">
         <is>
           <t>COMPRA NACIONAL VICTORIA</t>
         </is>
       </c>
-      <c r="C41" t="n">
+      <c r="C220" t="n">
         <v>-2700</v>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>CLP</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Cargo</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
         <is>
           <t>1401</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G220" t="inlineStr">
         <is>
           <t>corriente</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H220" t="inlineStr">
         <is>
           <t>{'full_account_id': '007061511401', 'date': '19/08', 'description': 'COMPRA NACIONAL VICTORIA', 'amount': '--$2.700'}</t>
         </is>
